--- a/Problems.xlsx
+++ b/Problems.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kohma\Data\Documents\TGC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\uni_kakurenbo\CompetitiveProgramming\original\contests\TGC\TGC002\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4845B2-C1BB-4240-8B8A-983C8C0AE85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{290ADDD4-187F-4CA2-B18E-799DA848307B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3EAF6B56-2090-4C9B-8BDA-349683128210}"/>
   </bookViews>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="79">
   <si>
     <t>Geek</t>
     <phoneticPr fontId="1"/>
@@ -212,10 +211,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>E+</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>E++</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -268,13 +263,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>experiment</t>
-  </si>
-  <si>
-    <t>bits, arrangement</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>topological-sort</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -299,11 +287,66 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Score-0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Score-1</t>
+    <t>Day</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Poppin' Distraction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>brute-force, 01-BFS, dijkstra</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Score Sum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Syntax Error (?)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Day </t>
+  </si>
+  <si>
+    <t>math, Legendre's formula</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>simulation, union-find</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>experiment, math</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -359,7 +402,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -372,11 +415,185 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -387,6 +604,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD6F3DED-0459-469D-9567-EA58E73407AB}" name="テーブル2" displayName="テーブル2" ref="A1:H26" totalsRowCount="1" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A1:H25" xr:uid="{BD6F3DED-0459-469D-9567-EA58E73407AB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H25">
+    <sortCondition ref="B1:B25"/>
+  </sortState>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{5B2921E8-B1B3-4B81-9421-8EDDED370744}" name="#" dataDxfId="14" totalsRowDxfId="13">
+      <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{5E16F4E7-36E5-4E48-9037-9E7C61BE0F3E}" name="Day" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{4C4C51C4-71B6-4C3A-BF8C-0D9531FF11F9}" name="Index" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{765DB643-11B4-4868-BC9D-3BA0D6C0F6A5}" name="Title" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{BA17E9F2-9003-47DA-8406-F075CE752F5E}" name="Score" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{3769F264-0CF2-4DF0-B62D-85491501069E}" name="Writer" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{70A52B22-FE8F-44EC-9D10-374C6D5BC8CE}" name="Difficulty" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{C7EA7080-883B-462F-AC11-EE76937D6780}" name="Note" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -686,38 +925,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2CD1C8-CC35-413A-A879-56BAAAB5CC5F}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="16.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="34" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="43.25" customWidth="1"/>
+    <col min="9" max="9" width="2.75" customWidth="1"/>
+    <col min="10" max="10" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>22</v>
@@ -728,24 +970,26 @@
       <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
-        <f>ROW()-1</f>
+        <f t="shared" ref="A2:A25" si="0">ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="str">
-        <f>LEFT(ADDRESS(1,A2,4),LEN(ADDRESS(1,A2,4))-1)</f>
-        <v>A</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2">
-        <v>50</v>
-      </c>
       <c r="E2" s="2">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>25</v>
@@ -753,27 +997,29 @@
       <c r="G2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
-        <f t="shared" ref="A3:A26" si="0">ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="str">
-        <f t="shared" ref="B3:B23" si="1">LEFT(ADDRESS(1,A3,4),LEN(ADDRESS(1,A3,4))-1)</f>
-        <v>B</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="2">
-        <v>50</v>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="E3" s="2">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>23</v>
@@ -781,280 +1027,291 @@
       <c r="G3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <f>SUMIF(テーブル2[Day], "="&amp;J3, テーブル2[Score])</f>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>200</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2</v>
+      </c>
+      <c r="K4" s="2">
+        <f>SUMIF(テーブル2[Day], "="&amp;J4, テーブル2[Score])</f>
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>200</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <f t="shared" si="0"/>
+      <c r="J5" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>C</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2">
-        <v>100</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="K5" s="2">
+        <f>SUMIF(テーブル2[Day], "="&amp;J5, テーブル2[Score])</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>300</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="2">
+        <v>300</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>400</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>D</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="G8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2">
+        <v>500</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="2">
-        <v>100</v>
-      </c>
-      <c r="E5" s="2">
-        <v>25</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="str">
-        <f>LEFT(ADDRESS(1,A6,4),LEN(ADDRESS(1,A6,4))-1)</f>
-        <v>E</v>
-      </c>
-      <c r="C6" s="2" t="str">
+      <c r="C10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="2" t="str">
         <f>"+-3"</f>
         <v>+-3</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E10" s="2">
         <v>200</v>
-      </c>
-      <c r="E6" s="2">
-        <v>50</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>F</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2">
-        <v>200</v>
-      </c>
-      <c r="E7" s="2">
-        <v>50</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>G</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2">
-        <v>200</v>
-      </c>
-      <c r="E8" s="2">
-        <v>50</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="str">
-        <f t="shared" ref="B9" si="2">LEFT(ADDRESS(1,A9,4),LEN(ADDRESS(1,A9,4))-1)</f>
-        <v>H</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="2">
-        <v>200</v>
-      </c>
-      <c r="E9" s="2">
-        <v>50</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>I</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="2">
-        <v>200</v>
-      </c>
-      <c r="E10" s="2">
-        <v>80</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>J</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>300</v>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="E11" s="2">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>K</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2">
         <v>300</v>
       </c>
-      <c r="E12" s="2">
-        <v>80</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="str">
-        <f>LEFT(ADDRESS(1,A13,4),LEN(ADDRESS(1,A13,4))-1)</f>
-        <v>L</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="2">
-        <v>300</v>
-      </c>
       <c r="E13" s="2">
-        <v>90</v>
+        <v>400</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>24</v>
@@ -1062,92 +1319,89 @@
       <c r="G13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H13" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="str">
-        <f>LEFT(ADDRESS(1,A14,4),LEN(ADDRESS(1,A14,4))-1)</f>
-        <v>M</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="2">
-        <v>300</v>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="2">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>N</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2">
-        <v>400</v>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="E15" s="2">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>O</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="2">
-        <v>400</v>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E16" s="2">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" t="s">
-        <v>56</v>
+        <v>40</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
@@ -1155,27 +1409,26 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="2">
-        <v>400</v>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="E17" s="2">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" t="s">
-        <v>57</v>
+        <v>43</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
@@ -1183,27 +1436,26 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Q</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="2">
-        <v>400</v>
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E18" s="2">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" t="s">
-        <v>58</v>
+        <v>39</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
@@ -1211,27 +1463,26 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>R</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="2">
-        <v>400</v>
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E19" s="2">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" t="s">
-        <v>59</v>
+        <v>38</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -1239,27 +1490,26 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>S</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="2">
-        <v>500</v>
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E20" s="2">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" t="s">
-        <v>60</v>
+        <v>38</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
@@ -1267,27 +1517,26 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>T</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="2">
-        <v>600</v>
+      <c r="B21" s="1">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E21" s="2">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" t="s">
-        <v>54</v>
+        <v>41</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
@@ -1295,27 +1544,26 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>U</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="2">
-        <v>800</v>
+      <c r="B22" s="1">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="E22" s="2">
-        <v>210</v>
+        <v>500</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H22" t="s">
-        <v>61</v>
+        <v>42</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
@@ -1323,41 +1571,115 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>V</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="1">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="2">
+        <v>600</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="2">
+        <v>700</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E23" s="2">
-        <v>272</v>
-      </c>
-      <c r="F23" s="2" t="s">
+      <c r="E25" s="2">
+        <v>800</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="D24" s="2">
-        <f>SUM(D2:D23)</f>
-        <v>7400</v>
-      </c>
-      <c r="E24" s="2">
-        <f>SUM(E2:E23)</f>
-        <v>2022</v>
-      </c>
+      <c r="G25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C26" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{018E1159-0890-4511-957E-8AB24A7BE121}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>3</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="1"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>B2:B25</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Problems.xlsx
+++ b/Problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\uni_kakurenbo\CompetitiveProgramming\original\contests\TGC\TGC002\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{290ADDD4-187F-4CA2-B18E-799DA848307B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F78ACCE9-E7DF-4ECD-8B56-66EAE980729D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3EAF6B56-2090-4C9B-8BDA-349683128210}"/>
+    <workbookView xWindow="3720" yWindow="1170" windowWidth="26025" windowHeight="13035" xr2:uid="{3EAF6B56-2090-4C9B-8BDA-349683128210}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="81">
   <si>
     <t>Geek</t>
     <phoneticPr fontId="1"/>
@@ -52,18 +52,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Over Under 40</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Swaps Just 3 </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Honest And Liar </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Kaidan of Kaidan</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -255,10 +247,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>brute-force(partial)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>consideration, math, experiment</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -287,10 +275,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Day</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Poppin' Distraction</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -303,10 +287,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -331,13 +311,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Syntax Error (?)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Day </t>
-  </si>
-  <si>
     <t>math, Legendre's formula</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -347,6 +320,42 @@
   </si>
   <si>
     <t>experiment, math</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tree Minimization Problem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LCA, DFS (recursive), accumulation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>brute-force (partial)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">HonestLiar </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SUPURA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Duration</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Session</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[minutes]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -424,21 +433,6 @@
   </cellStyles>
   <dxfs count="17">
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -508,6 +502,21 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -613,16 +622,16 @@
     <sortCondition ref="B1:B25"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{5B2921E8-B1B3-4B81-9421-8EDDED370744}" name="#" dataDxfId="14" totalsRowDxfId="13">
+    <tableColumn id="1" xr3:uid="{5B2921E8-B1B3-4B81-9421-8EDDED370744}" name="#" dataDxfId="14" totalsRowDxfId="6">
       <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{5E16F4E7-36E5-4E48-9037-9E7C61BE0F3E}" name="Day" dataDxfId="12" totalsRowDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{4C4C51C4-71B6-4C3A-BF8C-0D9531FF11F9}" name="Index" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{765DB643-11B4-4868-BC9D-3BA0D6C0F6A5}" name="Title" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{BA17E9F2-9003-47DA-8406-F075CE752F5E}" name="Score" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{3769F264-0CF2-4DF0-B62D-85491501069E}" name="Writer" dataDxfId="4" totalsRowDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{70A52B22-FE8F-44EC-9D10-374C6D5BC8CE}" name="Difficulty" dataDxfId="2" totalsRowDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{C7EA7080-883B-462F-AC11-EE76937D6780}" name="Note" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{5E16F4E7-36E5-4E48-9037-9E7C61BE0F3E}" name="Session" dataDxfId="13" totalsRowDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{4C4C51C4-71B6-4C3A-BF8C-0D9531FF11F9}" name="Index" dataDxfId="12" totalsRowDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{765DB643-11B4-4868-BC9D-3BA0D6C0F6A5}" name="Title" dataDxfId="11" totalsRowDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{BA17E9F2-9003-47DA-8406-F075CE752F5E}" name="Score" dataDxfId="10" totalsRowDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{3769F264-0CF2-4DF0-B62D-85491501069E}" name="Writer" dataDxfId="9" totalsRowDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{70A52B22-FE8F-44EC-9D10-374C6D5BC8CE}" name="Difficulty" dataDxfId="8" totalsRowDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{C7EA7080-883B-462F-AC11-EE76937D6780}" name="Note" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -927,14 +936,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2CD1C8-CC35-413A-A879-56BAAAB5CC5F}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="24.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.75" style="2" customWidth="1"/>
@@ -947,43 +956,43 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
-        <f t="shared" ref="A2:A25" si="0">ROW()-1</f>
+        <f>ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
@@ -992,28 +1001,28 @@
         <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>1</v>
@@ -1022,32 +1031,32 @@
         <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
       </c>
       <c r="K3" s="2">
-        <f>SUMIF(テーブル2[Day], "="&amp;J3, テーブル2[Score])</f>
+        <f>SUMIF(テーブル2[Session], "="&amp;J3, テーブル2[Score])</f>
         <v>2100</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>2</v>
@@ -1056,120 +1065,123 @@
         <v>200</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J4" s="2">
         <v>2</v>
       </c>
       <c r="K4" s="2">
-        <f>SUMIF(テーブル2[Day], "="&amp;J4, テーブル2[Score])</f>
-        <v>3100</v>
+        <f>SUMIF(テーブル2[Session], "="&amp;J4, テーブル2[Score])</f>
+        <v>3000</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2">
         <v>200</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J5" s="2">
         <v>3</v>
       </c>
       <c r="K5" s="2">
-        <f>SUMIF(テーブル2[Day], "="&amp;J5, テーブル2[Score])</f>
-        <v>4000</v>
+        <f>SUMIF(テーブル2[Session], "="&amp;J5, テーブル2[Score])</f>
+        <v>4400</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="2">
         <v>300</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E7" s="2">
         <v>300</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>0</v>
@@ -1178,52 +1190,64 @@
         <v>400</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E9" s="2">
         <v>500</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D10" s="2" t="str">
         <f>"+-3"</f>
@@ -1233,379 +1257,391 @@
         <v>200</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E11" s="2">
         <v>200</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="J11" s="2">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2">
         <v>300</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E13" s="2">
         <v>400</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" s="2">
         <v>400</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E15" s="2">
         <v>500</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E16" s="2">
         <v>500</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E17" s="2">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E18" s="2">
         <v>300</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E19" s="2">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>19</v>
       </c>
       <c r="B20" s="1">
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E20" s="2">
         <v>400</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>20</v>
       </c>
       <c r="B21" s="1">
         <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E21" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>21</v>
       </c>
       <c r="B22" s="1">
         <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22" s="2">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>22</v>
       </c>
       <c r="B23" s="1">
         <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="E23" s="2">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>23</v>
       </c>
       <c r="B24" s="1">
         <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="E24" s="2">
         <v>700</v>
@@ -1614,37 +1650,37 @@
         <v>24</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>24</v>
       </c>
       <c r="B25" s="1">
         <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E25" s="2">
         <v>800</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
